--- a/数据结构v9.xlsx
+++ b/数据结构v9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -226,9 +226,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,7 +248,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,13 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -269,6 +300,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -278,31 +332,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,58 +362,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -378,25 +378,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,19 +504,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,133 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,11 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,32 +620,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,10 +643,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -684,6 +664,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -692,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,137 +704,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,12 +846,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1205,14 +1199,14 @@
   <sheetPr/>
   <dimension ref="B3:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:F53"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="40.4545454545455" customWidth="1"/>
-    <col min="5" max="5" width="33.3727272727273" customWidth="1"/>
+    <col min="4" max="4" width="40.4583333333333" customWidth="1"/>
+    <col min="5" max="5" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
@@ -1588,7 +1582,7 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1601,7 +1595,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="5"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="4" t="s">
         <v>49</v>
@@ -1610,7 +1604,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="5"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="4" t="s">
         <v>50</v>
@@ -1619,7 +1613,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="5"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="4" t="s">
         <v>51</v>
@@ -1628,11 +1622,11 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -1641,44 +1635,44 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="6"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="4" t="s">
         <v>58</v>
       </c>
@@ -1688,8 +1682,8 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="4" t="s">
         <v>60</v>
       </c>
@@ -1699,12 +1693,12 @@
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1740,7 +1734,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1757,7 +1751,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
